--- a/src/Radial.UnitTest/demo.xlsx
+++ b/src/Radial.UnitTest/demo.xlsx
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -676,76 +676,62 @@
     <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4"/>
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
@@ -753,13 +739,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -767,13 +753,13 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -781,13 +767,13 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -795,36 +781,50 @@
         <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E22" s="4"/>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
